--- a/gu_in/Character.edf/Exp.xlsx
+++ b/gu_in/Character.edf/Exp.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09808C-D509-447D-8A0E-F99C09A0B3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F567773-14B8-4A55-8F42-521AFDCE8F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="285" windowWidth="24930" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,27 +57,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,10 +79,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,9 +98,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,9 +138,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +173,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +225,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,23 +418,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -449,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -463,7 +493,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -477,7 +507,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -491,7 +521,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -505,7 +535,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -519,7 +549,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -533,7 +563,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -547,7 +577,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -561,7 +591,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -575,7 +605,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -589,7 +619,7 @@
         <v>10181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -603,7 +633,7 @@
         <v>15735</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -617,7 +647,7 @@
         <v>24393</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -631,7 +661,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -645,7 +675,7 @@
         <v>59151</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -659,7 +689,7 @@
         <v>92526</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -673,7 +703,7 @@
         <v>145167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -687,7 +717,7 @@
         <v>228441</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -701,7 +731,7 @@
         <v>360563</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -715,7 +745,7 @@
         <v>570806</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -729,7 +759,7 @@
         <v>906353</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -743,7 +773,7 @@
         <v>1443468</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -757,7 +787,7 @@
         <v>2305780</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -771,7 +801,7 @@
         <v>3694278</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -785,7 +815,7 @@
         <v>5936661</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -799,7 +829,7 @@
         <v>9568765</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -813,7 +843,7 @@
         <v>15469293</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -827,7 +857,7 @@
         <v>25083375</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -841,7 +871,7 @@
         <v>40794575</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -855,7 +885,7 @@
         <v>66545669</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -869,7 +899,7 @@
         <v>108877492</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -883,7 +913,7 @@
         <v>178672353</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -897,7 +927,7 @@
         <v>294088159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -911,7 +941,7 @@
         <v>485510530</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -925,7 +955,7 @@
         <v>803934566</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -939,7 +969,7 @@
         <v>1335191883</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -953,7 +983,7 @@
         <v>2224168052</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -967,7 +997,7 @@
         <v>3716143243</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -981,7 +1011,7 @@
         <v>6227564392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -995,7 +1025,7 @@
         <v>10467547506</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>17647069147</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1023,7 +1053,7 @@
         <v>29840161362</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1037,7 +1067,7 @@
         <v>50609340755</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1051,7 +1081,7 @@
         <v>86091668763</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>146890092733</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1079,7 +1109,7 @@
         <v>251376582103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1093,7 +1123,7 @@
         <v>559242902707</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1107,7 +1137,7 @@
         <v>1492991693713</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1121,7 +1151,7 @@
         <v>4782946773304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1135,7 +1165,7 @@
         <v>18387172493401</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1149,7 +1179,7 @@
         <v>28274461609242</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1163,7 +1193,7 @@
         <v>86956836846928</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1177,7 +1207,7 @@
         <v>133715923205266</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>205618658255834</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1205,7 +1235,7 @@
         <v>316185474470584</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1219,284 +1249,144 @@
         <v>790463686176460</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>1285081075117471</v>
+        <v>1285081075117470</v>
       </c>
       <c r="C59" s="1">
-        <v>1285081075117471</v>
+        <v>1285081075117470</v>
       </c>
       <c r="D59" s="1">
-        <v>1285081075117471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1285081075117470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>2088256747065888</v>
+        <v>2088256747065880</v>
       </c>
       <c r="C60" s="1">
-        <v>2088256747065888</v>
+        <v>2088256747065880</v>
       </c>
       <c r="D60" s="1">
-        <v>2088256747065888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2088256747065880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>3257680525422784</v>
+        <v>3257680525422780</v>
       </c>
       <c r="C61" s="1">
-        <v>3257680525422784</v>
+        <v>3257680525422780</v>
       </c>
       <c r="D61" s="1">
-        <v>3257680525422784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3257680525422780</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>4940815463557888</v>
+        <v>4940815463557880</v>
       </c>
       <c r="C62" s="1">
-        <v>4940815463557888</v>
+        <v>4940815463557880</v>
       </c>
       <c r="D62" s="1">
-        <v>4940815463557888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4940815463557880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>7340640117286016</v>
+        <v>7340640117286010</v>
       </c>
       <c r="C63" s="1">
-        <v>7340640117286016</v>
+        <v>7340640117286010</v>
       </c>
       <c r="D63" s="1">
-        <v>7340640117286016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7340640117286010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>1.3121394209648752E+16</v>
+        <v>1.31213942096487E+16</v>
       </c>
       <c r="C64" s="1">
-        <v>1.3121394209648752E+16</v>
+        <v>1.31213942096487E+16</v>
       </c>
       <c r="D64" s="1">
-        <v>1.3121394209648752E+16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.31213942096487E+16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>2.170994314687344E+16</v>
+        <v>2.17099431468734E+16</v>
       </c>
       <c r="C65" s="1">
-        <v>2.170994314687344E+16</v>
+        <v>2.17099431468734E+16</v>
       </c>
       <c r="D65" s="1">
-        <v>2.170994314687344E+16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.17099431468734E+16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>3.427069596756448E+16</v>
+        <v>3.42706959675644E+16</v>
       </c>
       <c r="C66" s="1">
-        <v>3.427069596756448E+16</v>
+        <v>3.42706959675644E+16</v>
       </c>
       <c r="D66" s="1">
-        <v>3.427069596756448E+16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.42706959675644E+16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>5.241400559745152E+16</v>
+        <v>5.2414005597451504E+16</v>
       </c>
       <c r="C67" s="1">
-        <v>5.241400559745152E+16</v>
+        <v>5.2414005597451504E+16</v>
       </c>
       <c r="D67" s="1">
-        <v>5.241400559745152E+16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.2414005597451504E+16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>7.8358938368189936E+16</v>
+        <v>7.8358938368189904E+16</v>
       </c>
       <c r="C68" s="1">
-        <v>7.8358938368189936E+16</v>
+        <v>7.8358938368189904E+16</v>
       </c>
       <c r="D68" s="1">
-        <v>7.8358938368189936E+16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>66</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.0186661987864693E+17</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.0186661987864693E+17</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.0186661987864693E+17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>67</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.3242660584224101E+17</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.3242660584224101E+17</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.3242660584224101E+17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>68</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.7215458759491331E+17</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.7215458759491331E+17</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.7215458759491331E+17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>69</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2.2380096387338733E+17</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2.2380096387338733E+17</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2.2380096387338733E+17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>70</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2.9094125303540352E+17</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2.9094125303540352E+17</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2.9094125303540352E+17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>71</v>
-      </c>
-      <c r="B74" s="1">
-        <v>4.07318E+17</v>
-      </c>
-      <c r="C74" s="1">
-        <v>4.07318E+17</v>
-      </c>
-      <c r="D74" s="1">
-        <v>4.07318E+17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>72</v>
-      </c>
-      <c r="B75" s="1">
-        <v>5.29513E+17</v>
-      </c>
-      <c r="C75" s="1">
-        <v>5.29513E+17</v>
-      </c>
-      <c r="D75" s="1">
-        <v>5.29513E+17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76" s="1">
-        <v>6.88367E+17</v>
-      </c>
-      <c r="C76" s="1">
-        <v>6.88367E+17</v>
-      </c>
-      <c r="D76" s="1">
-        <v>6.88367E+17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>74</v>
-      </c>
-      <c r="B77" s="1">
-        <v>8.94877E+17</v>
-      </c>
-      <c r="C77" s="1">
-        <v>8.94877E+17</v>
-      </c>
-      <c r="D77" s="1">
-        <v>8.94877E+17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>75</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1.16334E+18</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.16334E+18</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1.16334E+18</v>
+        <v>7.8358938368189904E+16</v>
       </c>
     </row>
   </sheetData>

--- a/gu_in/Character.edf/Exp.xlsx
+++ b/gu_in/Character.edf/Exp.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F567773-14B8-4A55-8F42-521AFDCE8F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09808C-D509-447D-8A0E-F99C09A0B3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="285" windowWidth="24930" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,15 +49,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -79,10 +83,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,9 +142,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,26 +177,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,26 +212,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,23 +388,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -465,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -479,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -493,7 +463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -507,7 +477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -521,7 +491,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -535,7 +505,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -549,7 +519,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -563,7 +533,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -577,7 +547,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -591,7 +561,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -605,7 +575,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -619,7 +589,7 @@
         <v>10181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -633,7 +603,7 @@
         <v>15735</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -647,7 +617,7 @@
         <v>24393</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -661,7 +631,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -675,7 +645,7 @@
         <v>59151</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -689,7 +659,7 @@
         <v>92526</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -703,7 +673,7 @@
         <v>145167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -717,7 +687,7 @@
         <v>228441</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -731,7 +701,7 @@
         <v>360563</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -745,7 +715,7 @@
         <v>570806</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -759,7 +729,7 @@
         <v>906353</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -773,7 +743,7 @@
         <v>1443468</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -787,7 +757,7 @@
         <v>2305780</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -801,7 +771,7 @@
         <v>3694278</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -815,7 +785,7 @@
         <v>5936661</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -829,7 +799,7 @@
         <v>9568765</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -843,7 +813,7 @@
         <v>15469293</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -857,7 +827,7 @@
         <v>25083375</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -871,7 +841,7 @@
         <v>40794575</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -885,7 +855,7 @@
         <v>66545669</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -899,7 +869,7 @@
         <v>108877492</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -913,7 +883,7 @@
         <v>178672353</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -927,7 +897,7 @@
         <v>294088159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -941,7 +911,7 @@
         <v>485510530</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -955,7 +925,7 @@
         <v>803934566</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -969,7 +939,7 @@
         <v>1335191883</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -983,7 +953,7 @@
         <v>2224168052</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -997,7 +967,7 @@
         <v>3716143243</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1011,7 +981,7 @@
         <v>6227564392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1025,7 +995,7 @@
         <v>10467547506</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1039,7 +1009,7 @@
         <v>17647069147</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1053,7 +1023,7 @@
         <v>29840161362</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1067,7 +1037,7 @@
         <v>50609340755</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1081,7 +1051,7 @@
         <v>86091668763</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1095,7 +1065,7 @@
         <v>146890092733</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1109,7 +1079,7 @@
         <v>251376582103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1123,7 +1093,7 @@
         <v>559242902707</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1137,7 +1107,7 @@
         <v>1492991693713</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1151,7 +1121,7 @@
         <v>4782946773304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1165,7 +1135,7 @@
         <v>18387172493401</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1179,7 +1149,7 @@
         <v>28274461609242</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1193,7 +1163,7 @@
         <v>86956836846928</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1207,7 +1177,7 @@
         <v>133715923205266</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1221,7 +1191,7 @@
         <v>205618658255834</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1235,7 +1205,7 @@
         <v>316185474470584</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1249,144 +1219,284 @@
         <v>790463686176460</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>1285081075117470</v>
+        <v>1285081075117471</v>
       </c>
       <c r="C59" s="1">
-        <v>1285081075117470</v>
+        <v>1285081075117471</v>
       </c>
       <c r="D59" s="1">
-        <v>1285081075117470</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1285081075117471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>2088256747065880</v>
+        <v>2088256747065888</v>
       </c>
       <c r="C60" s="1">
-        <v>2088256747065880</v>
+        <v>2088256747065888</v>
       </c>
       <c r="D60" s="1">
-        <v>2088256747065880</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2088256747065888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>3257680525422780</v>
+        <v>3257680525422784</v>
       </c>
       <c r="C61" s="1">
-        <v>3257680525422780</v>
+        <v>3257680525422784</v>
       </c>
       <c r="D61" s="1">
-        <v>3257680525422780</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3257680525422784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>4940815463557880</v>
+        <v>4940815463557888</v>
       </c>
       <c r="C62" s="1">
-        <v>4940815463557880</v>
+        <v>4940815463557888</v>
       </c>
       <c r="D62" s="1">
-        <v>4940815463557880</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4940815463557888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>7340640117286010</v>
+        <v>7340640117286016</v>
       </c>
       <c r="C63" s="1">
-        <v>7340640117286010</v>
+        <v>7340640117286016</v>
       </c>
       <c r="D63" s="1">
-        <v>7340640117286010</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7340640117286016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>1.31213942096487E+16</v>
+        <v>1.3121394209648752E+16</v>
       </c>
       <c r="C64" s="1">
-        <v>1.31213942096487E+16</v>
+        <v>1.3121394209648752E+16</v>
       </c>
       <c r="D64" s="1">
-        <v>1.31213942096487E+16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3121394209648752E+16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>2.17099431468734E+16</v>
+        <v>2.170994314687344E+16</v>
       </c>
       <c r="C65" s="1">
-        <v>2.17099431468734E+16</v>
+        <v>2.170994314687344E+16</v>
       </c>
       <c r="D65" s="1">
-        <v>2.17099431468734E+16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.170994314687344E+16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>3.42706959675644E+16</v>
+        <v>3.427069596756448E+16</v>
       </c>
       <c r="C66" s="1">
-        <v>3.42706959675644E+16</v>
+        <v>3.427069596756448E+16</v>
       </c>
       <c r="D66" s="1">
-        <v>3.42706959675644E+16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.427069596756448E+16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>5.2414005597451504E+16</v>
+        <v>5.241400559745152E+16</v>
       </c>
       <c r="C67" s="1">
-        <v>5.2414005597451504E+16</v>
+        <v>5.241400559745152E+16</v>
       </c>
       <c r="D67" s="1">
-        <v>5.2414005597451504E+16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.241400559745152E+16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>7.8358938368189904E+16</v>
+        <v>7.8358938368189936E+16</v>
       </c>
       <c r="C68" s="1">
-        <v>7.8358938368189904E+16</v>
+        <v>7.8358938368189936E+16</v>
       </c>
       <c r="D68" s="1">
-        <v>7.8358938368189904E+16</v>
+        <v>7.8358938368189936E+16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.0186661987864693E+17</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.0186661987864693E+17</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.0186661987864693E+17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.3242660584224101E+17</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.3242660584224101E+17</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.3242660584224101E+17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.7215458759491331E+17</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.7215458759491331E+17</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.7215458759491331E+17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.2380096387338733E+17</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.2380096387338733E+17</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.2380096387338733E+17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.9094125303540352E+17</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.9094125303540352E+17</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2.9094125303540352E+17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.07318E+17</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.07318E+17</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4.07318E+17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5.29513E+17</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5.29513E+17</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5.29513E+17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6.88367E+17</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.88367E+17</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6.88367E+17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8.94877E+17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>8.94877E+17</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8.94877E+17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.16334E+18</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.16334E+18</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.16334E+18</v>
       </c>
     </row>
   </sheetData>
